--- a/test/testAssetNumber/assetNumberPerformance.xlsx
+++ b/test/testAssetNumber/assetNumberPerformance.xlsx
@@ -1,20 +1,20 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
   <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
-  <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
+  <workbookPr defaultThemeVersion="124226" filterPrivacy="1"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010"/>
+    <workbookView windowHeight="8010" windowWidth="14805" xWindow="240" yWindow="105"/>
   </bookViews>
   <sheets>
-    <sheet name="Results" sheetId="1" r:id="rId1"/>
+    <sheet name="Results" r:id="rId1" sheetId="1"/>
   </sheets>
   <calcPr calcId="122211"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="53" uniqueCount="24">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="353" uniqueCount="43">
   <si>
     <t>Rdata</t>
   </si>
@@ -76,16 +76,73 @@
     <t>callNumber3AssetNumber6.RData</t>
   </si>
   <si>
+    <t>callNumber1AssetNumber10.Rdata</t>
+  </si>
+  <si>
+    <t>callNumberMedium3AssetNumber10.Rdata</t>
+  </si>
+  <si>
+    <t>callNumberMedium3AssetNumber30.Rdata</t>
+  </si>
+  <si>
+    <t>callNumberMedium6AssetNumber30.Rdata</t>
+  </si>
+  <si>
+    <t>0.0199999999895226</t>
+  </si>
+  <si>
     <t>callNumber1AssetNumber10.RData</t>
   </si>
   <si>
+    <t>0.0200000000186265</t>
+  </si>
+  <si>
+    <t>0.0100000000093132</t>
+  </si>
+  <si>
+    <t>0.0099999999802094</t>
+  </si>
+  <si>
+    <t>0.0500000000174623</t>
+  </si>
+  <si>
+    <t>0.0299999999988358</t>
+  </si>
+  <si>
     <t>callNumberMedium3AssetNumber10.RData</t>
   </si>
   <si>
+    <t>0.0499999999883585</t>
+  </si>
+  <si>
     <t>callNumberMedium3AssetNumber30.RData</t>
   </si>
   <si>
+    <t>0.0600000000267755</t>
+  </si>
+  <si>
     <t>callNumberMedium6AssetNumber30.RData</t>
+  </si>
+  <si>
+    <t>0.0599999999976717</t>
+  </si>
+  <si>
+    <t>0</t>
+  </si>
+  <si>
+    <t>0.0400000000081491</t>
+  </si>
+  <si>
+    <t>0.0700000000069849</t>
+  </si>
+  <si>
+    <t>0.0300000000279397</t>
+  </si>
+  <si>
+    <t>0.0399999999790452</t>
+  </si>
+  <si>
+    <t>0.0799999999871943</t>
   </si>
 </sst>
 </file>
@@ -134,188 +191,1065 @@
     </border>
   </borders>
   <cellStyleXfs count="6">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="0">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="164" fontId="1" fillId="0" borderId="0">
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0"/>
+    <xf borderId="0" fillId="2" fontId="1" numFmtId="0">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="164">
       <alignment wrapText="1"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="61">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="2">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="2">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="2">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="2">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="2">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="2">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="2">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="2">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="2">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="2">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="2">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="2">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="2">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="2">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="2">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="2">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="2">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="2">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="2">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="2">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="2">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="2">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="2">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="2">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="2">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="2">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="2">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="2">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="2">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="2">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="2">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="2">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="2">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="2">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="2">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="2">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="2">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="2">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="2">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="2">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="2">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="2">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="2">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="2">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="2">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="2">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="2">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="2">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="2">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="2">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="2">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="2">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="2">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="2">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="2">
+  <cellXfs count="354">
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyAlignment="1" borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="2"/>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf applyFont="1" borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="2">
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="2">
@@ -340,10 +1274,10 @@
     <cellStyle name="XLConnect.Header" xfId="1"/>
     <cellStyle name="XLConnect.Numeric" xfId="3"/>
     <cellStyle name="XLConnect.String" xfId="2"/>
-    <cellStyle name="常规" xfId="0" builtinId="0"/>
+    <cellStyle builtinId="0" name="常规" xfId="0"/>
   </cellStyles>
   <dxfs count="0"/>
-  <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleMedium9"/>
+  <tableStyles count="0" defaultPivotStyle="PivotStyleMedium9" defaultTableStyle="TableStyleMedium2"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
@@ -360,10 +1294,10 @@
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
-        <a:sysClr val="windowText" lastClr="000000"/>
+        <a:sysClr lastClr="000000" val="windowText"/>
       </a:dk1>
       <a:lt1>
-        <a:sysClr val="window" lastClr="FFFFFF"/>
+        <a:sysClr lastClr="FFFFFF" val="window"/>
       </a:lt1>
       <a:dk2>
         <a:srgbClr val="1F497D"/>
@@ -398,7 +1332,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
+        <a:latin panose="020F0302020204030204" typeface="Cambria"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -433,7 +1367,7 @@
         <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:latin panose="020F0502020204030204" typeface="Calibri"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -521,7 +1455,7 @@
         </a:gradFill>
       </a:fillStyleLst>
       <a:lnStyleLst>
-        <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:ln algn="ctr" cap="flat" cmpd="sng" w="9525">
           <a:solidFill>
             <a:schemeClr val="phClr">
               <a:shade val="95000"/>
@@ -530,13 +1464,13 @@
           </a:solidFill>
           <a:prstDash val="solid"/>
         </a:ln>
-        <a:ln w="25400" cap="flat" cmpd="sng" algn="ctr">
+        <a:ln algn="ctr" cap="flat" cmpd="sng" w="25400">
           <a:solidFill>
             <a:schemeClr val="phClr"/>
           </a:solidFill>
           <a:prstDash val="solid"/>
         </a:ln>
-        <a:ln w="38100" cap="flat" cmpd="sng" algn="ctr">
+        <a:ln algn="ctr" cap="flat" cmpd="sng" w="38100">
           <a:solidFill>
             <a:schemeClr val="phClr"/>
           </a:solidFill>
@@ -546,7 +1480,7 @@
       <a:effectStyleLst>
         <a:effectStyle>
           <a:effectLst>
-            <a:outerShdw blurRad="40000" dist="20000" dir="5400000" rotWithShape="0">
+            <a:outerShdw blurRad="40000" dir="5400000" dist="20000" rotWithShape="0">
               <a:srgbClr val="000000">
                 <a:alpha val="38000"/>
               </a:srgbClr>
@@ -555,7 +1489,7 @@
         </a:effectStyle>
         <a:effectStyle>
           <a:effectLst>
-            <a:outerShdw blurRad="40000" dist="23000" dir="5400000" rotWithShape="0">
+            <a:outerShdw blurRad="40000" dir="5400000" dist="23000" rotWithShape="0">
               <a:srgbClr val="000000">
                 <a:alpha val="35000"/>
               </a:srgbClr>
@@ -564,7 +1498,7 @@
         </a:effectStyle>
         <a:effectStyle>
           <a:effectLst>
-            <a:outerShdw blurRad="40000" dist="23000" dir="5400000" rotWithShape="0">
+            <a:outerShdw blurRad="40000" dir="5400000" dist="23000" rotWithShape="0">
               <a:srgbClr val="000000">
                 <a:alpha val="35000"/>
               </a:srgbClr>
@@ -574,12 +1508,12 @@
             <a:camera prst="orthographicFront">
               <a:rot lat="0" lon="0" rev="0"/>
             </a:camera>
-            <a:lightRig rig="threePt" dir="t">
+            <a:lightRig dir="t" rig="threePt">
               <a:rot lat="0" lon="0" rev="1200000"/>
             </a:lightRig>
           </a:scene3d>
           <a:sp3d>
-            <a:bevelT w="63500" h="25400"/>
+            <a:bevelT h="25400" w="63500"/>
           </a:sp3d>
         </a:effectStyle>
       </a:effectStyleLst>
@@ -610,7 +1544,7 @@
             </a:gs>
           </a:gsLst>
           <a:path path="circle">
-            <a:fillToRect l="50000" t="-80000" r="50000" b="180000"/>
+            <a:fillToRect b="180000" l="50000" r="50000" t="-80000"/>
           </a:path>
         </a:gradFill>
         <a:gradFill rotWithShape="1">
@@ -629,7 +1563,7 @@
             </a:gs>
           </a:gsLst>
           <a:path path="circle">
-            <a:fillToRect l="50000" t="50000" r="50000" b="50000"/>
+            <a:fillToRect b="50000" l="50000" r="50000" t="50000"/>
           </a:path>
         </a:gradFill>
       </a:bgFillStyleLst>
@@ -641,17 +1575,16 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:E13"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H11" sqref="H11"/>
+      <selection activeCell="D6" sqref="D6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="42.85546875" customWidth="1" collapsed="1"/>
-    <col min="5" max="5" width="11.85546875" customWidth="1"/>
+    <col min="1" max="1" customWidth="true" width="42.85546875" collapsed="true"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:5" x14ac:dyDescent="0.25">
@@ -675,207 +1608,1227 @@
       <c r="A2" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="B2" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="C2" s="3" t="s">
-        <v>6</v>
-      </c>
-      <c r="D2" s="4" t="s">
-        <v>7</v>
-      </c>
-      <c r="E2" s="5">
-        <v>1.00000000002183E-2</v>
+      <c r="B2" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="C2" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="D2" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="E2" s="1">
+        <v>1.99999999895226E-2</v>
       </c>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A3" s="6" t="s">
+      <c r="A3" s="53" t="s">
         <v>20</v>
       </c>
-      <c r="B3" s="7" t="s">
-        <v>6</v>
-      </c>
-      <c r="C3" s="8" t="s">
+      <c r="B3" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="C3" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="D3" s="9" t="s">
-        <v>7</v>
-      </c>
-      <c r="E3" s="10">
-        <v>2.99999999997453E-2</v>
+      <c r="D3" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="E3" s="5">
+        <v>1.99999999895226E-2</v>
       </c>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A4" s="11" t="s">
+      <c r="A4" s="6" t="s">
         <v>9</v>
       </c>
-      <c r="B4" s="12" t="s">
-        <v>6</v>
-      </c>
-      <c r="C4" s="13" t="s">
-        <v>10</v>
-      </c>
-      <c r="D4" s="14" t="s">
-        <v>7</v>
-      </c>
-      <c r="E4" s="15">
-        <v>3.0000000000200099E-2</v>
+      <c r="B4" s="7" t="s">
+        <v>6</v>
+      </c>
+      <c r="C4" s="8" t="s">
+        <v>10</v>
+      </c>
+      <c r="D4" s="9" t="s">
+        <v>7</v>
+      </c>
+      <c r="E4" s="10">
+        <v>1.00000000093132E-2</v>
       </c>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A5" s="16" t="s">
+      <c r="A5" s="11" t="s">
         <v>11</v>
       </c>
-      <c r="B5" s="17" t="s">
-        <v>6</v>
-      </c>
-      <c r="C5" s="18" t="s">
+      <c r="B5" s="12" t="s">
+        <v>6</v>
+      </c>
+      <c r="C5" s="13" t="s">
         <v>12</v>
       </c>
-      <c r="D5" s="19" t="s">
-        <v>7</v>
-      </c>
-      <c r="E5" s="20">
-        <v>1.00000000002183E-2</v>
+      <c r="D5" s="14" t="s">
+        <v>7</v>
+      </c>
+      <c r="E5" s="15">
+        <v>1.99999999895226E-2</v>
       </c>
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A6" s="21" t="s">
+      <c r="A6" s="16" t="s">
         <v>13</v>
       </c>
-      <c r="B6" s="22" t="s">
-        <v>6</v>
-      </c>
-      <c r="C6" s="23" t="s">
+      <c r="B6" s="17" t="s">
+        <v>6</v>
+      </c>
+      <c r="C6" s="18" t="s">
         <v>14</v>
       </c>
-      <c r="D6" s="24" t="s">
-        <v>7</v>
-      </c>
-      <c r="E6" s="25">
-        <v>1.99999999999818E-2</v>
+      <c r="D6" s="19" t="s">
+        <v>7</v>
+      </c>
+      <c r="E6" s="20">
+        <v>1.00000000093132E-2</v>
       </c>
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A7" s="26" t="s">
+      <c r="A7" s="21" t="s">
         <v>15</v>
       </c>
-      <c r="B7" s="27" t="s">
-        <v>10</v>
-      </c>
-      <c r="C7" s="28" t="s">
+      <c r="B7" s="22" t="s">
+        <v>10</v>
+      </c>
+      <c r="C7" s="23" t="s">
         <v>16</v>
       </c>
-      <c r="D7" s="29" t="s">
-        <v>7</v>
-      </c>
-      <c r="E7" s="30">
-        <v>5.0000000000181899E-2</v>
+      <c r="D7" s="24" t="s">
+        <v>7</v>
+      </c>
+      <c r="E7" s="25">
+        <v>5.0000000017462298E-2</v>
       </c>
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A8" s="31" t="s">
+      <c r="A8" s="26" t="s">
         <v>17</v>
       </c>
-      <c r="B8" s="32" t="s">
-        <v>10</v>
-      </c>
-      <c r="C8" s="33" t="s">
-        <v>10</v>
-      </c>
-      <c r="D8" s="34" t="s">
-        <v>7</v>
-      </c>
-      <c r="E8" s="35">
-        <v>2.99999999997453E-2</v>
+      <c r="B8" s="27" t="s">
+        <v>10</v>
+      </c>
+      <c r="C8" s="28" t="s">
+        <v>10</v>
+      </c>
+      <c r="D8" s="29" t="s">
+        <v>7</v>
+      </c>
+      <c r="E8" s="30">
+        <v>3.99999999790452E-2</v>
       </c>
     </row>
     <row r="9" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A9" s="36" t="s">
+      <c r="A9" s="31" t="s">
         <v>18</v>
       </c>
-      <c r="B9" s="37" t="s">
-        <v>10</v>
-      </c>
-      <c r="C9" s="38" t="s">
+      <c r="B9" s="32" t="s">
+        <v>10</v>
+      </c>
+      <c r="C9" s="33" t="s">
         <v>12</v>
       </c>
-      <c r="D9" s="39" t="s">
-        <v>7</v>
-      </c>
-      <c r="E9" s="40">
-        <v>2.99999999997453E-2</v>
+      <c r="D9" s="34" t="s">
+        <v>7</v>
+      </c>
+      <c r="E9" s="35">
+        <v>0.100000000005821</v>
       </c>
     </row>
     <row r="10" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A10" s="41" t="s">
+      <c r="A10" s="36" t="s">
         <v>19</v>
       </c>
-      <c r="B10" s="42" t="s">
-        <v>10</v>
-      </c>
-      <c r="C10" s="43" t="s">
+      <c r="B10" s="37" t="s">
+        <v>10</v>
+      </c>
+      <c r="C10" s="38" t="s">
         <v>14</v>
       </c>
-      <c r="D10" s="44" t="s">
-        <v>7</v>
-      </c>
-      <c r="E10" s="45">
-        <v>2.99999999997453E-2</v>
+      <c r="D10" s="39" t="s">
+        <v>7</v>
+      </c>
+      <c r="E10" s="40">
+        <v>2.9999999998835802E-2</v>
       </c>
     </row>
     <row r="11" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A11" s="46" t="s">
+      <c r="A11" s="53" t="s">
         <v>21</v>
       </c>
-      <c r="B11" s="47" t="s">
-        <v>10</v>
-      </c>
-      <c r="C11" s="48" t="s">
+      <c r="B11" s="41" t="s">
+        <v>10</v>
+      </c>
+      <c r="C11" s="42" t="s">
         <v>16</v>
       </c>
-      <c r="D11" s="49" t="s">
-        <v>7</v>
-      </c>
-      <c r="E11" s="50">
-        <v>4.99999999997272E-2</v>
+      <c r="D11" s="43" t="s">
+        <v>7</v>
+      </c>
+      <c r="E11" s="44">
+        <v>5.0000000017462298E-2</v>
       </c>
     </row>
     <row r="12" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A12" s="51" t="s">
+      <c r="A12" s="53" t="s">
         <v>22</v>
       </c>
-      <c r="B12" s="52" t="s">
-        <v>10</v>
-      </c>
-      <c r="C12" s="53" t="s">
+      <c r="B12" s="45" t="s">
+        <v>10</v>
+      </c>
+      <c r="C12" s="46" t="s">
         <v>12</v>
       </c>
-      <c r="D12" s="54" t="s">
-        <v>7</v>
-      </c>
-      <c r="E12" s="55">
-        <v>3.9999999999963599E-2</v>
+      <c r="D12" s="47" t="s">
+        <v>7</v>
+      </c>
+      <c r="E12" s="48">
+        <v>5.0000000017462298E-2</v>
       </c>
     </row>
     <row r="13" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A13" s="56" t="s">
+      <c r="A13" s="53" t="s">
         <v>23</v>
       </c>
-      <c r="B13" s="57" t="s">
+      <c r="B13" s="49" t="s">
         <v>14</v>
       </c>
-      <c r="C13" s="58" t="s">
+      <c r="C13" s="50" t="s">
         <v>12</v>
       </c>
-      <c r="D13" s="59" t="s">
-        <v>7</v>
-      </c>
-      <c r="E13" s="60">
-        <v>5.9999999999945403E-2</v>
+      <c r="D13" s="51" t="s">
+        <v>7</v>
+      </c>
+      <c r="E13" s="52">
+        <v>7.9999999987194301E-2</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="54" t="s">
+        <v>5</v>
+      </c>
+      <c r="B14" s="55" t="s">
+        <v>6</v>
+      </c>
+      <c r="C14" s="56" t="s">
+        <v>6</v>
+      </c>
+      <c r="D14" s="57" t="s">
+        <v>7</v>
+      </c>
+      <c r="E14" s="58" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="59" t="s">
+        <v>25</v>
+      </c>
+      <c r="B15" s="60" t="s">
+        <v>6</v>
+      </c>
+      <c r="C15" s="61" t="s">
+        <v>8</v>
+      </c>
+      <c r="D15" s="62" t="s">
+        <v>7</v>
+      </c>
+      <c r="E15" s="63" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="64" t="s">
+        <v>9</v>
+      </c>
+      <c r="B16" s="65" t="s">
+        <v>6</v>
+      </c>
+      <c r="C16" s="66" t="s">
+        <v>10</v>
+      </c>
+      <c r="D16" s="67" t="s">
+        <v>7</v>
+      </c>
+      <c r="E16" s="68" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="69" t="s">
+        <v>11</v>
+      </c>
+      <c r="B17" s="70" t="s">
+        <v>6</v>
+      </c>
+      <c r="C17" s="71" t="s">
+        <v>12</v>
+      </c>
+      <c r="D17" s="72" t="s">
+        <v>7</v>
+      </c>
+      <c r="E17" s="73" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="74" t="s">
+        <v>13</v>
+      </c>
+      <c r="B18" s="75" t="s">
+        <v>6</v>
+      </c>
+      <c r="C18" s="76" t="s">
+        <v>14</v>
+      </c>
+      <c r="D18" s="77" t="s">
+        <v>7</v>
+      </c>
+      <c r="E18" s="78" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" s="79" t="s">
+        <v>15</v>
+      </c>
+      <c r="B19" s="80" t="s">
+        <v>10</v>
+      </c>
+      <c r="C19" s="81" t="s">
+        <v>16</v>
+      </c>
+      <c r="D19" s="82" t="s">
+        <v>7</v>
+      </c>
+      <c r="E19" s="83" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" s="84" t="s">
+        <v>17</v>
+      </c>
+      <c r="B20" s="85" t="s">
+        <v>10</v>
+      </c>
+      <c r="C20" s="86" t="s">
+        <v>10</v>
+      </c>
+      <c r="D20" s="87" t="s">
+        <v>7</v>
+      </c>
+      <c r="E20" s="88" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" s="89" t="s">
+        <v>18</v>
+      </c>
+      <c r="B21" s="90" t="s">
+        <v>10</v>
+      </c>
+      <c r="C21" s="91" t="s">
+        <v>12</v>
+      </c>
+      <c r="D21" s="92" t="s">
+        <v>7</v>
+      </c>
+      <c r="E21" s="93" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" s="94" t="s">
+        <v>19</v>
+      </c>
+      <c r="B22" s="95" t="s">
+        <v>10</v>
+      </c>
+      <c r="C22" s="96" t="s">
+        <v>14</v>
+      </c>
+      <c r="D22" s="97" t="s">
+        <v>7</v>
+      </c>
+      <c r="E22" s="98" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" s="99" t="s">
+        <v>31</v>
+      </c>
+      <c r="B23" s="100" t="s">
+        <v>10</v>
+      </c>
+      <c r="C23" s="101" t="s">
+        <v>16</v>
+      </c>
+      <c r="D23" s="102" t="s">
+        <v>7</v>
+      </c>
+      <c r="E23" s="103" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" s="104" t="s">
+        <v>33</v>
+      </c>
+      <c r="B24" s="105" t="s">
+        <v>10</v>
+      </c>
+      <c r="C24" s="106" t="s">
+        <v>12</v>
+      </c>
+      <c r="D24" s="107" t="s">
+        <v>7</v>
+      </c>
+      <c r="E24" s="108" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" s="109" t="s">
+        <v>35</v>
+      </c>
+      <c r="B25" s="110" t="s">
+        <v>14</v>
+      </c>
+      <c r="C25" s="111" t="s">
+        <v>12</v>
+      </c>
+      <c r="D25" s="112" t="s">
+        <v>7</v>
+      </c>
+      <c r="E25" s="113" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" s="114" t="s">
+        <v>5</v>
+      </c>
+      <c r="B26" s="115" t="s">
+        <v>6</v>
+      </c>
+      <c r="C26" s="116" t="s">
+        <v>6</v>
+      </c>
+      <c r="D26" s="117" t="s">
+        <v>7</v>
+      </c>
+      <c r="E26" s="118" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" s="119" t="s">
+        <v>25</v>
+      </c>
+      <c r="B27" s="120" t="s">
+        <v>6</v>
+      </c>
+      <c r="C27" s="121" t="s">
+        <v>8</v>
+      </c>
+      <c r="D27" s="122" t="s">
+        <v>7</v>
+      </c>
+      <c r="E27" s="123" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" s="124" t="s">
+        <v>9</v>
+      </c>
+      <c r="B28" s="125" t="s">
+        <v>6</v>
+      </c>
+      <c r="C28" s="126" t="s">
+        <v>10</v>
+      </c>
+      <c r="D28" s="127" t="s">
+        <v>7</v>
+      </c>
+      <c r="E28" s="128" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" s="129" t="s">
+        <v>11</v>
+      </c>
+      <c r="B29" s="130" t="s">
+        <v>6</v>
+      </c>
+      <c r="C29" s="131" t="s">
+        <v>12</v>
+      </c>
+      <c r="D29" s="132" t="s">
+        <v>7</v>
+      </c>
+      <c r="E29" s="133" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" s="134" t="s">
+        <v>13</v>
+      </c>
+      <c r="B30" s="135" t="s">
+        <v>6</v>
+      </c>
+      <c r="C30" s="136" t="s">
+        <v>14</v>
+      </c>
+      <c r="D30" s="137" t="s">
+        <v>7</v>
+      </c>
+      <c r="E30" s="138" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" s="139" t="s">
+        <v>15</v>
+      </c>
+      <c r="B31" s="140" t="s">
+        <v>10</v>
+      </c>
+      <c r="C31" s="141" t="s">
+        <v>16</v>
+      </c>
+      <c r="D31" s="142" t="s">
+        <v>7</v>
+      </c>
+      <c r="E31" s="143" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" s="144" t="s">
+        <v>17</v>
+      </c>
+      <c r="B32" s="145" t="s">
+        <v>10</v>
+      </c>
+      <c r="C32" s="146" t="s">
+        <v>10</v>
+      </c>
+      <c r="D32" s="147" t="s">
+        <v>7</v>
+      </c>
+      <c r="E32" s="148" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" s="149" t="s">
+        <v>18</v>
+      </c>
+      <c r="B33" s="150" t="s">
+        <v>10</v>
+      </c>
+      <c r="C33" s="151" t="s">
+        <v>12</v>
+      </c>
+      <c r="D33" s="152" t="s">
+        <v>7</v>
+      </c>
+      <c r="E33" s="153" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" s="154" t="s">
+        <v>19</v>
+      </c>
+      <c r="B34" s="155" t="s">
+        <v>10</v>
+      </c>
+      <c r="C34" s="156" t="s">
+        <v>14</v>
+      </c>
+      <c r="D34" s="157" t="s">
+        <v>7</v>
+      </c>
+      <c r="E34" s="158" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" s="159" t="s">
+        <v>31</v>
+      </c>
+      <c r="B35" s="160" t="s">
+        <v>10</v>
+      </c>
+      <c r="C35" s="161" t="s">
+        <v>16</v>
+      </c>
+      <c r="D35" s="162" t="s">
+        <v>7</v>
+      </c>
+      <c r="E35" s="163" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" s="164" t="s">
+        <v>33</v>
+      </c>
+      <c r="B36" s="165" t="s">
+        <v>10</v>
+      </c>
+      <c r="C36" s="166" t="s">
+        <v>12</v>
+      </c>
+      <c r="D36" s="167" t="s">
+        <v>7</v>
+      </c>
+      <c r="E36" s="168" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37" s="169" t="s">
+        <v>35</v>
+      </c>
+      <c r="B37" s="170" t="s">
+        <v>14</v>
+      </c>
+      <c r="C37" s="171" t="s">
+        <v>12</v>
+      </c>
+      <c r="D37" s="172" t="s">
+        <v>7</v>
+      </c>
+      <c r="E37" s="173" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="38">
+      <c r="A38" s="174" t="s">
+        <v>5</v>
+      </c>
+      <c r="B38" s="175" t="s">
+        <v>6</v>
+      </c>
+      <c r="C38" s="176" t="s">
+        <v>6</v>
+      </c>
+      <c r="D38" s="177" t="s">
+        <v>7</v>
+      </c>
+      <c r="E38" s="178" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="39">
+      <c r="A39" s="179" t="s">
+        <v>25</v>
+      </c>
+      <c r="B39" s="180" t="s">
+        <v>6</v>
+      </c>
+      <c r="C39" s="181" t="s">
+        <v>8</v>
+      </c>
+      <c r="D39" s="182" t="s">
+        <v>7</v>
+      </c>
+      <c r="E39" s="183" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="40">
+      <c r="A40" s="184" t="s">
+        <v>9</v>
+      </c>
+      <c r="B40" s="185" t="s">
+        <v>6</v>
+      </c>
+      <c r="C40" s="186" t="s">
+        <v>10</v>
+      </c>
+      <c r="D40" s="187" t="s">
+        <v>7</v>
+      </c>
+      <c r="E40" s="188" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="41">
+      <c r="A41" s="189" t="s">
+        <v>11</v>
+      </c>
+      <c r="B41" s="190" t="s">
+        <v>6</v>
+      </c>
+      <c r="C41" s="191" t="s">
+        <v>12</v>
+      </c>
+      <c r="D41" s="192" t="s">
+        <v>7</v>
+      </c>
+      <c r="E41" s="193" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="42">
+      <c r="A42" s="194" t="s">
+        <v>13</v>
+      </c>
+      <c r="B42" s="195" t="s">
+        <v>6</v>
+      </c>
+      <c r="C42" s="196" t="s">
+        <v>14</v>
+      </c>
+      <c r="D42" s="197" t="s">
+        <v>7</v>
+      </c>
+      <c r="E42" s="198" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="43">
+      <c r="A43" s="199" t="s">
+        <v>15</v>
+      </c>
+      <c r="B43" s="200" t="s">
+        <v>10</v>
+      </c>
+      <c r="C43" s="201" t="s">
+        <v>16</v>
+      </c>
+      <c r="D43" s="202" t="s">
+        <v>7</v>
+      </c>
+      <c r="E43" s="203" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="44">
+      <c r="A44" s="204" t="s">
+        <v>17</v>
+      </c>
+      <c r="B44" s="205" t="s">
+        <v>10</v>
+      </c>
+      <c r="C44" s="206" t="s">
+        <v>10</v>
+      </c>
+      <c r="D44" s="207" t="s">
+        <v>7</v>
+      </c>
+      <c r="E44" s="208" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="45">
+      <c r="A45" s="209" t="s">
+        <v>18</v>
+      </c>
+      <c r="B45" s="210" t="s">
+        <v>10</v>
+      </c>
+      <c r="C45" s="211" t="s">
+        <v>12</v>
+      </c>
+      <c r="D45" s="212" t="s">
+        <v>7</v>
+      </c>
+      <c r="E45" s="213" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="46">
+      <c r="A46" s="214" t="s">
+        <v>19</v>
+      </c>
+      <c r="B46" s="215" t="s">
+        <v>10</v>
+      </c>
+      <c r="C46" s="216" t="s">
+        <v>14</v>
+      </c>
+      <c r="D46" s="217" t="s">
+        <v>7</v>
+      </c>
+      <c r="E46" s="218" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="47">
+      <c r="A47" s="219" t="s">
+        <v>31</v>
+      </c>
+      <c r="B47" s="220" t="s">
+        <v>10</v>
+      </c>
+      <c r="C47" s="221" t="s">
+        <v>16</v>
+      </c>
+      <c r="D47" s="222" t="s">
+        <v>7</v>
+      </c>
+      <c r="E47" s="223" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="48">
+      <c r="A48" s="224" t="s">
+        <v>33</v>
+      </c>
+      <c r="B48" s="225" t="s">
+        <v>10</v>
+      </c>
+      <c r="C48" s="226" t="s">
+        <v>12</v>
+      </c>
+      <c r="D48" s="227" t="s">
+        <v>7</v>
+      </c>
+      <c r="E48" s="228" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="49">
+      <c r="A49" s="229" t="s">
+        <v>35</v>
+      </c>
+      <c r="B49" s="230" t="s">
+        <v>14</v>
+      </c>
+      <c r="C49" s="231" t="s">
+        <v>12</v>
+      </c>
+      <c r="D49" s="232" t="s">
+        <v>7</v>
+      </c>
+      <c r="E49" s="233" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="50">
+      <c r="A50" s="234" t="s">
+        <v>5</v>
+      </c>
+      <c r="B50" s="235" t="s">
+        <v>6</v>
+      </c>
+      <c r="C50" s="236" t="s">
+        <v>6</v>
+      </c>
+      <c r="D50" s="237" t="s">
+        <v>7</v>
+      </c>
+      <c r="E50" s="238" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="51">
+      <c r="A51" s="239" t="s">
+        <v>25</v>
+      </c>
+      <c r="B51" s="240" t="s">
+        <v>6</v>
+      </c>
+      <c r="C51" s="241" t="s">
+        <v>8</v>
+      </c>
+      <c r="D51" s="242" t="s">
+        <v>7</v>
+      </c>
+      <c r="E51" s="243" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="52">
+      <c r="A52" s="244" t="s">
+        <v>9</v>
+      </c>
+      <c r="B52" s="245" t="s">
+        <v>6</v>
+      </c>
+      <c r="C52" s="246" t="s">
+        <v>10</v>
+      </c>
+      <c r="D52" s="247" t="s">
+        <v>7</v>
+      </c>
+      <c r="E52" s="248" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="53">
+      <c r="A53" s="249" t="s">
+        <v>11</v>
+      </c>
+      <c r="B53" s="250" t="s">
+        <v>6</v>
+      </c>
+      <c r="C53" s="251" t="s">
+        <v>12</v>
+      </c>
+      <c r="D53" s="252" t="s">
+        <v>7</v>
+      </c>
+      <c r="E53" s="253" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="54">
+      <c r="A54" s="254" t="s">
+        <v>13</v>
+      </c>
+      <c r="B54" s="255" t="s">
+        <v>6</v>
+      </c>
+      <c r="C54" s="256" t="s">
+        <v>14</v>
+      </c>
+      <c r="D54" s="257" t="s">
+        <v>7</v>
+      </c>
+      <c r="E54" s="258" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="55">
+      <c r="A55" s="259" t="s">
+        <v>15</v>
+      </c>
+      <c r="B55" s="260" t="s">
+        <v>10</v>
+      </c>
+      <c r="C55" s="261" t="s">
+        <v>16</v>
+      </c>
+      <c r="D55" s="262" t="s">
+        <v>7</v>
+      </c>
+      <c r="E55" s="263" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="56">
+      <c r="A56" s="264" t="s">
+        <v>17</v>
+      </c>
+      <c r="B56" s="265" t="s">
+        <v>10</v>
+      </c>
+      <c r="C56" s="266" t="s">
+        <v>10</v>
+      </c>
+      <c r="D56" s="267" t="s">
+        <v>7</v>
+      </c>
+      <c r="E56" s="268" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="57">
+      <c r="A57" s="269" t="s">
+        <v>18</v>
+      </c>
+      <c r="B57" s="270" t="s">
+        <v>10</v>
+      </c>
+      <c r="C57" s="271" t="s">
+        <v>12</v>
+      </c>
+      <c r="D57" s="272" t="s">
+        <v>7</v>
+      </c>
+      <c r="E57" s="273" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="58">
+      <c r="A58" s="274" t="s">
+        <v>19</v>
+      </c>
+      <c r="B58" s="275" t="s">
+        <v>10</v>
+      </c>
+      <c r="C58" s="276" t="s">
+        <v>14</v>
+      </c>
+      <c r="D58" s="277" t="s">
+        <v>7</v>
+      </c>
+      <c r="E58" s="278" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="59">
+      <c r="A59" s="279" t="s">
+        <v>31</v>
+      </c>
+      <c r="B59" s="280" t="s">
+        <v>10</v>
+      </c>
+      <c r="C59" s="281" t="s">
+        <v>16</v>
+      </c>
+      <c r="D59" s="282" t="s">
+        <v>7</v>
+      </c>
+      <c r="E59" s="283" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="60">
+      <c r="A60" s="284" t="s">
+        <v>33</v>
+      </c>
+      <c r="B60" s="285" t="s">
+        <v>10</v>
+      </c>
+      <c r="C60" s="286" t="s">
+        <v>12</v>
+      </c>
+      <c r="D60" s="287" t="s">
+        <v>7</v>
+      </c>
+      <c r="E60" s="288" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="61">
+      <c r="A61" s="289" t="s">
+        <v>35</v>
+      </c>
+      <c r="B61" s="290" t="s">
+        <v>14</v>
+      </c>
+      <c r="C61" s="291" t="s">
+        <v>12</v>
+      </c>
+      <c r="D61" s="292" t="s">
+        <v>7</v>
+      </c>
+      <c r="E61" s="293" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="62">
+      <c r="A62" s="294" t="s">
+        <v>5</v>
+      </c>
+      <c r="B62" s="295" t="s">
+        <v>6</v>
+      </c>
+      <c r="C62" s="296" t="s">
+        <v>6</v>
+      </c>
+      <c r="D62" s="297" t="s">
+        <v>7</v>
+      </c>
+      <c r="E62" s="298" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="63">
+      <c r="A63" s="299" t="s">
+        <v>25</v>
+      </c>
+      <c r="B63" s="300" t="s">
+        <v>6</v>
+      </c>
+      <c r="C63" s="301" t="s">
+        <v>8</v>
+      </c>
+      <c r="D63" s="302" t="s">
+        <v>7</v>
+      </c>
+      <c r="E63" s="303" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="64">
+      <c r="A64" s="304" t="s">
+        <v>9</v>
+      </c>
+      <c r="B64" s="305" t="s">
+        <v>6</v>
+      </c>
+      <c r="C64" s="306" t="s">
+        <v>10</v>
+      </c>
+      <c r="D64" s="307" t="s">
+        <v>7</v>
+      </c>
+      <c r="E64" s="308" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="65">
+      <c r="A65" s="309" t="s">
+        <v>11</v>
+      </c>
+      <c r="B65" s="310" t="s">
+        <v>6</v>
+      </c>
+      <c r="C65" s="311" t="s">
+        <v>12</v>
+      </c>
+      <c r="D65" s="312" t="s">
+        <v>7</v>
+      </c>
+      <c r="E65" s="313" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="66">
+      <c r="A66" s="314" t="s">
+        <v>13</v>
+      </c>
+      <c r="B66" s="315" t="s">
+        <v>6</v>
+      </c>
+      <c r="C66" s="316" t="s">
+        <v>14</v>
+      </c>
+      <c r="D66" s="317" t="s">
+        <v>7</v>
+      </c>
+      <c r="E66" s="318" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="67">
+      <c r="A67" s="319" t="s">
+        <v>15</v>
+      </c>
+      <c r="B67" s="320" t="s">
+        <v>10</v>
+      </c>
+      <c r="C67" s="321" t="s">
+        <v>16</v>
+      </c>
+      <c r="D67" s="322" t="s">
+        <v>7</v>
+      </c>
+      <c r="E67" s="323" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="68">
+      <c r="A68" s="324" t="s">
+        <v>17</v>
+      </c>
+      <c r="B68" s="325" t="s">
+        <v>10</v>
+      </c>
+      <c r="C68" s="326" t="s">
+        <v>10</v>
+      </c>
+      <c r="D68" s="327" t="s">
+        <v>7</v>
+      </c>
+      <c r="E68" s="328" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="69">
+      <c r="A69" s="329" t="s">
+        <v>18</v>
+      </c>
+      <c r="B69" s="330" t="s">
+        <v>10</v>
+      </c>
+      <c r="C69" s="331" t="s">
+        <v>12</v>
+      </c>
+      <c r="D69" s="332" t="s">
+        <v>7</v>
+      </c>
+      <c r="E69" s="333" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="70">
+      <c r="A70" s="334" t="s">
+        <v>19</v>
+      </c>
+      <c r="B70" s="335" t="s">
+        <v>10</v>
+      </c>
+      <c r="C70" s="336" t="s">
+        <v>14</v>
+      </c>
+      <c r="D70" s="337" t="s">
+        <v>7</v>
+      </c>
+      <c r="E70" s="338" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="71">
+      <c r="A71" s="339" t="s">
+        <v>31</v>
+      </c>
+      <c r="B71" s="340" t="s">
+        <v>10</v>
+      </c>
+      <c r="C71" s="341" t="s">
+        <v>16</v>
+      </c>
+      <c r="D71" s="342" t="s">
+        <v>7</v>
+      </c>
+      <c r="E71" s="343" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="72">
+      <c r="A72" s="344" t="s">
+        <v>33</v>
+      </c>
+      <c r="B72" s="345" t="s">
+        <v>10</v>
+      </c>
+      <c r="C72" s="346" t="s">
+        <v>12</v>
+      </c>
+      <c r="D72" s="347" t="s">
+        <v>7</v>
+      </c>
+      <c r="E72" s="348" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="73">
+      <c r="A73" t="s" s="349">
+        <v>35</v>
+      </c>
+      <c r="B73" t="s" s="350">
+        <v>14</v>
+      </c>
+      <c r="C73" t="s" s="351">
+        <v>12</v>
+      </c>
+      <c r="D73" t="s" s="352">
+        <v>7</v>
+      </c>
+      <c r="E73" t="s" s="353">
+        <v>42</v>
       </c>
     </row>
   </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
 </worksheet>
 </file>